--- a/BGM一览_20181209.xlsx
+++ b/BGM一览_20181209.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$210</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="793">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="3"/>
@@ -5151,12 +5151,99 @@
   <si>
     <t>sagume_4</t>
   </si>
+  <si>
+    <t>yukimai_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>雪&amp;舞</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>幺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">史 </t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>禁断の魔法　～ Forbidden Magic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>meira_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罗</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>やみのちから</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5193,13 +5280,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5289,19 +5369,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5309,6 +5386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5614,11 +5694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I168" sqref="I168"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5658,7 +5738,7 @@
       <c r="A4" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>669</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5679,7 +5759,7 @@
       <c r="A5" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>671</v>
       </c>
@@ -5698,7 +5778,7 @@
       <c r="A6" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>672</v>
       </c>
@@ -5715,7 +5795,7 @@
       <c r="A7" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>673</v>
       </c>
@@ -5749,7 +5829,7 @@
       <c r="A9" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>670</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5770,7 +5850,7 @@
       <c r="A10" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>675</v>
       </c>
@@ -5789,7 +5869,7 @@
       <c r="A11" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>676</v>
       </c>
@@ -5808,7 +5888,7 @@
       <c r="A12" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>677</v>
       </c>
@@ -5842,7 +5922,7 @@
       <c r="A15" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5863,7 +5943,7 @@
       <c r="A16" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>693</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5882,7 +5962,7 @@
       <c r="A17" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5901,7 +5981,7 @@
       <c r="A18" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5922,7 +6002,7 @@
       <c r="A19" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5943,7 +6023,7 @@
       <c r="A20" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5962,7 +6042,7 @@
       <c r="A21" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5981,7 +6061,7 @@
       <c r="A22" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6000,7 +6080,7 @@
       <c r="A23" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6019,7 +6099,7 @@
       <c r="A24" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>699</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -6038,7 +6118,7 @@
       <c r="A25" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>483</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -6053,495 +6133,493 @@
       </c>
       <c r="G25" s="1"/>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>707</v>
+        <v>790</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1</v>
+        <v>788</v>
       </c>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>708</v>
+        <v>574</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>503</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>364</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>709</v>
+        <v>501</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>708</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>500</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>710</v>
+        <v>543</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>709</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>650</v>
+        <v>317</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>527</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>415</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>763</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>654</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>655</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>557</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>650</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B37" s="6"/>
+        <v>764</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>415</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>763</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>654</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>655</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>711</v>
+        <v>577</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>576</v>
+      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>712</v>
+        <v>569</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>711</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>713</v>
+        <v>45</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>568</v>
+      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>714</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>645</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>498</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>715</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>486</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>714</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>645</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>646</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>647</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>488</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>649</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>765</v>
+      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="1" t="s">
-        <v>651</v>
+        <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>651</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>646</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>608</v>
+        <v>535</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>15</v>
       </c>
@@ -6552,269 +6630,269 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B53" s="5"/>
+        <v>558</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>608</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B55" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="1" t="s">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>713</v>
+        <v>66</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>663</v>
+        <v>477</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+        <v>620</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>660</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>717</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>663</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>395</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>399</v>
+        <v>660</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>400</v>
+        <v>638</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>321</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="A61" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>344</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>770</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="5"/>
+        <v>552</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>718</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>88</v>
+        <v>524</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>719</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
@@ -6827,1014 +6905,1014 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>719</v>
+        <v>598</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>97</v>
+        <v>719</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>325</v>
+        <v>87</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B70" s="5"/>
+        <v>567</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>720</v>
+        <v>505</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>96</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>721</v>
+        <v>518</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>591</v>
+        <v>549</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>721</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>722</v>
+        <v>591</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>723</v>
+        <v>328</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>115</v>
+        <v>587</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>113</v>
+        <v>723</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>724</v>
+        <v>531</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>125</v>
+        <v>612</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>134</v>
+        <v>541</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>725</v>
+        <v>597</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>264</v>
+        <v>515</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>726</v>
+        <v>137</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>727</v>
+        <v>512</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="E88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G88" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>139</v>
+        <v>593</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>142</v>
+        <v>728</v>
       </c>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>729</v>
+        <v>139</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B93" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>430</v>
+        <v>144</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>431</v>
+        <v>145</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>152</v>
+        <v>630</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>729</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>153</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
-        <v>154</v>
+        <v>430</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>337</v>
+        <v>151</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B97" s="4"/>
+        <v>550</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C97" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>330</v>
+        <v>123</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B98" s="5"/>
+        <v>492</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>730</v>
+        <v>338</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>731</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B99" s="6"/>
       <c r="C99" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>578</v>
+        <v>494</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>40</v>
+        <v>730</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>169</v>
+        <v>579</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>732</v>
+        <v>521</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="1" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>733</v>
+        <v>526</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>734</v>
+        <v>605</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B110" s="6"/>
+        <v>556</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>658</v>
+        <v>182</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>659</v>
+        <v>183</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>735</v>
+        <v>609</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>734</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>339</v>
+        <v>184</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B112" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="B112" s="9"/>
       <c r="C112" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>192</v>
+        <v>658</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>193</v>
+        <v>659</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>194</v>
+        <v>489</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>735</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>736</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>202</v>
+        <v>601</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>737</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>739</v>
+        <v>553</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>737</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>740</v>
+        <v>528</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>738</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>233</v>
+        <v>514</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -7847,524 +7925,526 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B125" s="5"/>
+        <v>599</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>742</v>
+        <v>230</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>743</v>
+        <v>496</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>741</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>656</v>
+        <v>349</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>657</v>
+        <v>235</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G130" s="1"/>
+      <c r="G128" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="1" t="s">
+      <c r="B134" s="5"/>
+      <c r="C134" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="1"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="1"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="1" t="s">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="1"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>660</v>
+        <v>128</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>638</v>
+        <v>241</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>746</v>
+        <v>510</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>771</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>246</v>
+        <v>660</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>247</v>
+        <v>638</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>660</v>
+        <v>259</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>775</v>
+        <v>258</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1" t="s">
-        <v>774</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>639</v>
+        <v>246</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>640</v>
+        <v>247</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>200</v>
+        <v>660</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>263</v>
+        <v>775</v>
       </c>
       <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>747</v>
+        <v>546</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E144" s="1" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>277</v>
+        <v>603</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>747</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>778</v>
+        <v>585</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B148" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C148" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>583</v>
+        <v>495</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>281</v>
+        <v>778</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>748</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="B150" s="8"/>
       <c r="C150" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>286</v>
+        <v>583</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="E151" s="1" t="s">
-        <v>481</v>
+        <v>132</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>749</v>
+        <v>559</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>480</v>
+        <v>287</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>750</v>
+        <v>268</v>
       </c>
       <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>622</v>
+        <v>749</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>627</v>
+        <v>480</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>87</v>
+        <v>482</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>750</v>
@@ -8373,89 +8453,89 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="1"/>
+        <v>625</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>629</v>
+        <v>87</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>628</v>
+        <v>751</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>621</v>
+        <v>504</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B159" s="4"/>
+        <v>575</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>621</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>752</v>
-      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>642</v>
+        <v>87</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>641</v>
+        <v>751</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B160" s="5"/>
+        <v>783</v>
+      </c>
+      <c r="B160" s="6"/>
       <c r="C160" s="1" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>635</v>
+        <v>752</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>637</v>
@@ -8464,713 +8544,751 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>753</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="B161" s="6"/>
       <c r="C161" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D161" s="1"/>
+        <v>664</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="E161" s="1" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>750</v>
+        <v>641</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>754</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="B162" s="5"/>
       <c r="C162" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1" t="s">
-        <v>643</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>642</v>
+        <v>87</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>641</v>
+        <v>750</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>755</v>
+        <v>516</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>754</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D164" s="1"/>
+        <v>632</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="E164" s="1" t="s">
-        <v>87</v>
+        <v>633</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>750</v>
+        <v>624</v>
       </c>
       <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>756</v>
+        <v>513</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>296</v>
+        <v>750</v>
       </c>
       <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A167" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>758</v>
+        <v>570</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>759</v>
+        <v>491</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>301</v>
+        <v>523</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>758</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B173" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1" t="s">
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
         <v>762</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C184" t="s">
         <v>305</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D184" t="s">
         <v>315</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E184" t="s">
         <v>306</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F184" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B183" s="7"/>
-      <c r="C183" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B185" s="7"/>
+        <v>401</v>
+      </c>
+      <c r="B185" s="3"/>
       <c r="C185" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G185" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B186" s="7"/>
+        <v>406</v>
+      </c>
+      <c r="B186" s="3"/>
       <c r="C186" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B187" s="7"/>
+        <v>407</v>
+      </c>
+      <c r="B187" s="3"/>
       <c r="C187" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B188" s="7"/>
+        <v>411</v>
+      </c>
+      <c r="B188" s="3"/>
       <c r="C188" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>376</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B189" s="7"/>
+        <v>408</v>
+      </c>
+      <c r="B189" s="3"/>
       <c r="C189" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B190" s="7"/>
+        <v>412</v>
+      </c>
+      <c r="B190" s="3"/>
       <c r="C190" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B191" s="7"/>
+        <v>409</v>
+      </c>
+      <c r="B191" s="3"/>
       <c r="C191" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D191" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="E191" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>687</v>
+        <v>388</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B192" s="7"/>
+        <v>413</v>
+      </c>
+      <c r="B192" s="3"/>
       <c r="C192" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B194" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="B194" s="3"/>
       <c r="C194" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B196" s="7"/>
+        <v>474</v>
+      </c>
+      <c r="B196" s="3"/>
       <c r="C196" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B197" s="7"/>
+        <v>444</v>
+      </c>
+      <c r="B197" s="3"/>
       <c r="C197" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B198" s="7"/>
+        <v>419</v>
+      </c>
+      <c r="B198" s="3"/>
       <c r="C198" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B199" s="7"/>
+        <v>447</v>
+      </c>
+      <c r="B199" s="3"/>
       <c r="C199" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B200" s="7"/>
+        <v>424</v>
+      </c>
+      <c r="B200" s="3"/>
       <c r="C200" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B201" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="B201" s="3"/>
       <c r="C201" s="1" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B202" s="7"/>
+        <v>429</v>
+      </c>
+      <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B203" s="7"/>
+        <v>455</v>
+      </c>
+      <c r="B203" s="3"/>
       <c r="C203" s="1" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B204" s="7"/>
+        <v>434</v>
+      </c>
+      <c r="B204" s="3"/>
       <c r="C204" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B206" s="7"/>
+        <v>439</v>
+      </c>
+      <c r="B206" s="3"/>
       <c r="C206" s="1" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B208" s="7"/>
-      <c r="C208" s="1" t="s">
+      <c r="B210" s="3"/>
+      <c r="C210" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G208" s="1"/>
+      <c r="G210" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G208"/>
+  <autoFilter ref="A1:G210"/>
   <mergeCells count="36">
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B118:B119"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B157:B158"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BGM一览_20181209.xlsx
+++ b/BGM一览_20181209.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BGM" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$216</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="809">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="3"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>もう歌しか聞こえない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">残響 - she is certainly - </t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1541,10 +1537,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve"> 赤より紅い夢 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>運命の鐘</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2537,10 +2529,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>永遠の春夢</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>完全憑依ディスコグラフィ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5236,6 +5224,81 @@
   </si>
   <si>
     <t>やみのちから</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>彩花永月 - さいかえいげつ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>砕月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赤より紅い夢 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>砕月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>蠢々秋月　～ Mooned Insect</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>村里翔太の音楽堂</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>星空のハミングロード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>迎え火</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>寂寥蛍</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>流派未月亭</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽趣佳境</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もう歌しか聞こえない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夜雀の歌声　～ Night Bird</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Factory Noise&amp;AG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WindAge</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>魔界地方都市エソテリア</t>
+  </si>
+  <si>
+    <t>大神神話伝</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>永遠の春夢</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5243,7 +5306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5290,13 +5353,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -5363,7 +5439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5372,6 +5448,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5390,6 +5473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5694,11 +5778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5713,133 +5797,133 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
         <v>305</v>
       </c>
-      <c r="D1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>306</v>
       </c>
-      <c r="F1" t="s">
-        <v>307</v>
-      </c>
       <c r="G1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>669</v>
+        <v>560</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>559</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>562</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>561</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>563</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>670</v>
+        <v>534</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>77</v>
@@ -5848,36 +5932,36 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>535</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>536</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -5886,297 +5970,297 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>537</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -6194,7 +6278,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -6204,7 +6288,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -6213,13 +6297,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>708</v>
+        <v>499</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>705</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -6234,11 +6318,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>498</v>
+      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -6251,13 +6335,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>709</v>
+        <v>541</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>706</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
@@ -6272,11 +6356,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>540</v>
+      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -6291,10 +6375,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -6312,13 +6396,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B36" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
@@ -6333,28 +6417,28 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B37" s="9"/>
+        <v>761</v>
+      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B38" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6373,9 +6457,9 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B39" s="9"/>
+        <v>574</v>
+      </c>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -6392,13 +6476,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>711</v>
+        <v>567</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>708</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>44</v>
@@ -6413,11 +6497,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B41" s="9"/>
+        <v>566</v>
+      </c>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
@@ -6432,10 +6516,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>712</v>
+        <v>507</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>709</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>36</v>
@@ -6447,15 +6531,15 @@
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>506</v>
+      </c>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
@@ -6472,7 +6556,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>48</v>
@@ -6493,7 +6577,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>49</v>
@@ -6514,13 +6598,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>714</v>
+        <v>484</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>711</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>55</v>
@@ -6535,26 +6619,26 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>486</v>
+      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>762</v>
+      </c>
+      <c r="B49" s="9"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -6562,54 +6646,54 @@
         <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>763</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B51" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>57</v>
@@ -6630,10 +6714,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
@@ -6651,9 +6735,9 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B54" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6670,9 +6754,9 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>605</v>
+      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
         <v>64</v>
       </c>
@@ -6689,13 +6773,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B56" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>70</v>
@@ -6710,11 +6794,11 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B57" s="6"/>
+        <v>618</v>
+      </c>
+      <c r="B57" s="9"/>
       <c r="C57" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>72</v>
@@ -6723,50 +6807,50 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="6"/>
+        <v>616</v>
+      </c>
+      <c r="B58" s="9"/>
       <c r="C58" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B59" s="5"/>
+        <v>765</v>
+      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -6776,58 +6860,58 @@
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B62" s="5"/>
+        <v>612</v>
+      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>74</v>
@@ -6840,1743 +6924,1725 @@
         <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>790</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="1"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="1"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" s="1"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>88</v>
+        <v>715</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>802</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>719</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
-        <v>343</v>
+        <v>803</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>719</v>
+        <v>522</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>767</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>720</v>
+        <v>564</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>565</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>341</v>
+        <v>658</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>721</v>
+        <v>503</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>108</v>
+        <v>516</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B78" s="5"/>
+        <v>517</v>
+      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>722</v>
+        <v>547</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F79" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>589</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>791</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B82" s="5"/>
+        <v>590</v>
+      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>724</v>
+        <v>585</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>719</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>584</v>
+      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>218</v>
+        <v>720</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>125</v>
+        <v>529</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B86" s="9"/>
       <c r="C86" s="1" t="s">
-        <v>130</v>
+        <v>345</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G87" s="1"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>725</v>
+        <v>610</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>721</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>334</v>
+        <v>115</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>264</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>330</v>
+        <v>199</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>726</v>
+        <v>217</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>727</v>
+        <v>124</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>728</v>
+        <v>126</v>
       </c>
       <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>590</v>
+        <v>513</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>143</v>
+        <v>722</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>144</v>
+        <v>333</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>729</v>
+        <v>527</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>149</v>
+        <v>723</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B95" s="5"/>
+        <v>591</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>142</v>
+        <v>725</v>
       </c>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>120</v>
+        <v>546</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>337</v>
+        <v>144</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B99" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>726</v>
+      </c>
       <c r="C99" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B100" s="5"/>
+        <v>628</v>
+      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>730</v>
+        <v>141</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>731</v>
+        <v>552</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B102" s="5"/>
+        <v>548</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>169</v>
+        <v>490</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>168</v>
+        <v>337</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B104" s="5"/>
+        <v>491</v>
+      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>732</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B105" s="8"/>
       <c r="C105" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>158</v>
+        <v>727</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B106" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>728</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>162</v>
+        <v>346</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>172</v>
+        <v>519</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="B109" s="8"/>
       <c r="C109" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>733</v>
+        <v>594</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>734</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>735</v>
+        <v>524</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B114" s="5"/>
+        <v>603</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>194</v>
+        <v>730</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>736</v>
+        <v>607</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>731</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>13</v>
+        <v>655</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>12</v>
+        <v>656</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>202</v>
+        <v>487</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B119" s="5"/>
+        <v>488</v>
+      </c>
+      <c r="B119" s="8"/>
       <c r="C119" s="1" t="s">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>737</v>
+        <v>599</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>739</v>
+        <v>608</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>740</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>741</v>
+        <v>551</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B127" s="5"/>
+        <v>526</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>735</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>742</v>
+        <v>227</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>237</v>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="13" t="s">
+        <v>806</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>241</v>
+        <v>710</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>744</v>
+        <v>494</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>242</v>
+        <v>348</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B133" s="8"/>
       <c r="C133" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>249</v>
+        <v>739</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B134" s="5"/>
+        <v>553</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>740</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>245</v>
+        <v>653</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>245</v>
+        <v>654</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>247</v>
+        <v>98</v>
       </c>
       <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>772</v>
+        <v>531</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>745</v>
+        <v>235</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>252</v>
+        <v>604</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>741</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="1"/>
+        <v>579</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D139" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>660</v>
+        <v>247</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>638</v>
+        <v>248</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>746</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="B140" s="8"/>
       <c r="C140" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="1" t="s">
-        <v>773</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>775</v>
-      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>774</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>639</v>
+        <v>127</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>640</v>
+        <v>240</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>261</v>
+        <v>508</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>262</v>
+        <v>807</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>747</v>
+        <v>542</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="E146" s="1" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>269</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="B147" s="9"/>
       <c r="C147" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>288</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>275</v>
+        <v>657</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>276</v>
+        <v>772</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>290</v>
+        <v>771</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>259</v>
+        <v>636</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>124</v>
+        <v>637</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B150" s="8"/>
+        <v>544</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C150" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>285</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>481</v>
+        <v>270</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>749</v>
+        <v>493</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>775</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D155" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="E155" s="1" t="s">
-        <v>482</v>
+        <v>258</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>750</v>
+        <v>123</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>623</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="B156" s="11"/>
       <c r="C156" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D156" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="E156" s="1" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>751</v>
+        <v>279</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>622</v>
+        <v>581</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E157" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>750</v>
+        <v>269</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E158" s="1" t="s">
-        <v>629</v>
+        <v>131</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>628</v>
+        <v>269</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>621</v>
+        <v>557</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>664</v>
+        <v>286</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>87</v>
+        <v>479</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>751</v>
+        <v>267</v>
       </c>
       <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B161" s="6"/>
+        <v>582</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>746</v>
+      </c>
       <c r="C161" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>752</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>642</v>
+        <v>480</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B162" s="5"/>
+        <v>623</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>621</v>
+      </c>
       <c r="C162" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>635</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>636</v>
+        <v>86</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>637</v>
+        <v>748</v>
       </c>
       <c r="G162" s="1"/>
     </row>
@@ -8584,674 +8650,784 @@
       <c r="A163" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>753</v>
+      <c r="B163" s="7" t="s">
+        <v>620</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>644</v>
+        <v>808</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>624</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1" t="s">
-        <v>643</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>642</v>
+        <v>86</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>641</v>
+        <v>748</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>755</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="B166" s="9"/>
       <c r="C166" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D166" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="E166" s="1" t="s">
-        <v>87</v>
+        <v>630</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>750</v>
+        <v>634</v>
       </c>
       <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>756</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="B168" s="8"/>
       <c r="C168" s="1" t="s">
-        <v>293</v>
+        <v>631</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>294</v>
+        <v>632</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>295</v>
+        <v>633</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>296</v>
+        <v>634</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>297</v>
+        <v>750</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>298</v>
+        <v>641</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>758</v>
+        <v>514</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>299</v>
+        <v>629</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>351</v>
+        <v>622</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>352</v>
+        <v>630</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>353</v>
+        <v>622</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D171" s="1"/>
+        <v>779</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="E171" s="1" t="s">
-        <v>361</v>
+        <v>639</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>760</v>
+        <v>638</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E178" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>759</v>
+      </c>
+      <c r="C190" t="s">
         <v>304</v>
       </c>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>762</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="D190" t="s">
+        <v>314</v>
+      </c>
+      <c r="E190" t="s">
         <v>305</v>
       </c>
-      <c r="D184" t="s">
-        <v>315</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="F190" t="s">
         <v>306</v>
       </c>
-      <c r="F184" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="1" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G191" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="1" t="s">
-        <v>389</v>
+        <v>792</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D193" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="E193" s="1" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>687</v>
+        <v>371</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="1" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="1" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D197" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="E197" s="1" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="1" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>449</v>
+        <v>684</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="1" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B201" s="3"/>
-      <c r="C201" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="1" t="s">
-        <v>460</v>
+        <v>793</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="1" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="1" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="1" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G210" s="1"/>
+      <c r="G216" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G210"/>
+  <autoFilter ref="A1:G216"/>
   <mergeCells count="36">
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -9265,34 +9441,45 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B75:B76"/>
     <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B123:B124"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B103:B105"/>
     <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B163:B164"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="E65" r:id="rId1" display="https://www.xiami.com/artist/113099?spm=a2oj1.12028335.0.0.266066d4oyS5T3"/>
+    <hyperlink ref="F65" r:id="rId2" display="https://www.xiami.com/album/1187942536"/>
+    <hyperlink ref="F66" r:id="rId3" display="https://www.xiami.com/album/486998"/>
+    <hyperlink ref="D66" r:id="rId4" display="https://www.xiami.com/song/1770729601"/>
+    <hyperlink ref="E67" r:id="rId5" display="https://www.xiami.com/artist/819993944?spm=a2oj1.12028335.0.0.266073a0oP5PGE"/>
+    <hyperlink ref="F67" r:id="rId6" display="https://www.xiami.com/album/2100378480?spm=a2oj1.12028335.0.0.266073a0oP5PGE"/>
+    <hyperlink ref="D67" r:id="rId7" display="https://www.xiami.com/song/1776357841"/>
+    <hyperlink ref="E87" r:id="rId8" display="https://www.xiami.com/artist/113539?spm=a2oj1.12028335.0.0.25371854i3Y3Oh"/>
+    <hyperlink ref="F87" r:id="rId9" display="https://www.xiami.com/album/499515"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/BGM一览_20181209.xlsx
+++ b/BGM一览_20181209.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D2F159-D558-456C-9EA2-42BDB44A6677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BGM" sheetId="1" r:id="rId1"/>
@@ -12,14 +13,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BGM!$A$1:$G$219</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="821">
   <si>
     <t>Sensitive Heart</t>
     <phoneticPr fontId="3"/>
@@ -1245,10 +1246,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Remember*C -autumn</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1529,10 +1526,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AQUA STYLE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>無幻のアウローラ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1564,494 +1557,490 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>黄昏フロンティア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>koutaq XL project</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柳英一郎 XL project</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>霍青娥</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">歳月-雲流れ- </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sound sepher</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> キュアリアス上海古牌 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>妖々夢　～ Snow or Cherry Petal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銀の絨毯、一雫の花片</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Foxtail-Grass Studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cattleya 幻想写景 -妖-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>萃夢想</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>萃う夢を想う</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なつかぜメモリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 永夜抄　～ Eastern Night. </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幻想郷へのいざない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東方アイリッシュ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>封印されし神々</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秋風月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lupinus 幻想写景 -風</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>地霊達の起床</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仄暗い穴ぐらの底から </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ほしくずアテリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不思議なお祓い棒 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">諷詠 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>流派未月亭</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水古譚-suikotan-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">塵界不変のペシミズム～心綺楼囃子 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黄昏フロンティア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lily of valley</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネクロファンタジア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>八云紫</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>狐兎疋</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>雪月風花</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不思議なお祓い棒 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">過ぎれば大抵は悪い気はしないもの </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オーライフジャパン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>謀叛和楽陣</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opening9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラクトガール　～ 少女密室</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">籠居漏水 / [紅] ラクトガール　～ 少女密室  </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グーシャンダグー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>郷音の多い料理店</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 東方妖々夢　～ Ancient Temple </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>桜花爛漫、夢遊幻界</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Foxtail-Grass Studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cattleya 幻想写景 -妖-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>砕月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月見酒</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幻想郷事変</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>厄神様の通り道</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>やくさいながし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sensitive Heart</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fallusion -風神小紀行-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>神々が恋した幻想郷</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>月は幻想のままに　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>舞風～MAIKAZE～</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東方華想神月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柳の下のデュラハン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">柳ニ風 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>流派未月亭</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水古譚-suikotan-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遠野幻想物語</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>無常幻想詩</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foxtail-Grass Studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なつかぜメモリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>千年幻想郷　～ History of the Moon</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷  </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>神乃木製作所</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三年幻想郷 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>武陵桃源</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>狐兎疋</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夢幻泡沫</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メグリネ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lupinus 幻想写景 -風</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ending1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>紅楼　～ Eastern Dream…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Floating Cloud</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東方アイリッシュ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ending3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暮色蒼然</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>はちみつれもん</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東方天楼華</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ending2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メグルユメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>theme1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>k-waves LAB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>さくらさくら　～ Japanize Dream…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死なばもろとも</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>星幽剣士</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>兎は舞い降りた</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>上海アリス幻樂団</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>黄昏フロンティア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>koutaq XL project</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>柳英一郎 XL project</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>霍青娥</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">歳月-雲流れ- </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>sound sepher</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> キュアリアス上海古牌 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>妖々夢　～ Snow or Cherry Petal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>銀の絨毯、一雫の花片</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>萃夢想</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>萃う夢を想う</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>なつかぜメモリア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 永夜抄　～ Eastern Night. </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幻想郷へのいざない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>東方アイリッシュ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>封印されし神々</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>秋風月</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>地霊達の起床</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">仄暗い穴ぐらの底から </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ほしくずアテリア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 不思議なお祓い棒 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">諷詠 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>流派未月亭</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>水古譚-suikotan-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">塵界不変のペシミズム～心綺楼囃子 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>黄昏フロンティア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Lily of valley</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ネクロファンタジア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>八云紫</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>狐兎疋</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>雪月風花</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 不思議なお祓い棒 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">過ぎれば大抵は悪い気はしないもの </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>オーライフジャパン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>謀叛和楽陣</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opening9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ラクトガール　～ 少女密室</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">籠居漏水 / [紅] ラクトガール　～ 少女密室  </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>グーシャンダグー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>郷音の多い料理店</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 東方妖々夢　～ Ancient Temple </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>桜花爛漫、夢遊幻界</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cattleya 幻想写景 -妖-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>砕月</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月見酒</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幻想郷事変</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>厄神様の通り道</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>やくさいながし</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Sensitive Heart</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Fallusion -風神小紀行-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme9</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>神々が恋した幻想郷</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月は幻想のままに　</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>舞風～MAIKAZE～</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>東方華想神月</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme11</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>柳の下のデュラハン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">柳ニ風 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>流派未月亭</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>水古譚-suikotan-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>遠野幻想物語</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>無常幻想詩</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Foxtail-Grass Studio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>なつかぜメモリア</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>千年幻想郷　～ History of the Moon</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三年幻想郷  </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>神乃木製作所</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">三年幻想郷 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>武陵桃源</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>狐兎疋</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>夢幻泡沫</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">明日ハレの日、ケの昨日 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メグリネ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Lupinus 幻想写景 -風</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ending1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>紅楼　～ Eastern Dream…</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> そして今日も紅魔館の扉は開く</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Floating Cloud</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>東方アイリッシュ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ending3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>暮色蒼然</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>はちみつれもん</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>東方天楼華</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ending2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メグルユメ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>theme1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>k-waves LAB</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>さくらさくら　～ Japanize Dream…</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 幽雅に咲かせ、墨染の桜　～ Border of Life </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>死なばもろとも</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>星幽剣士</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>兎は舞い降りた</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上海アリス幻樂団</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>上海アリス幻樂団</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>梦子</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2122,9 +2111,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>clownpiece_1</t>
-  </si>
-  <si>
     <t>daiyousei_1</t>
   </si>
   <si>
@@ -2157,9 +2143,6 @@
     <t>hatate_1</t>
   </si>
   <si>
-    <t>hecatia_1</t>
-  </si>
-  <si>
     <t>ichirin_1</t>
   </si>
   <si>
@@ -2383,9 +2366,6 @@
   </si>
   <si>
     <t>seija_1</t>
-  </si>
-  <si>
-    <t>seiran_1</t>
   </si>
   <si>
     <t>sekibanki_1</t>
@@ -5299,14 +5279,237 @@
   </si>
   <si>
     <t>永遠の春夢</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>摩多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罗隐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>岐奈</t>
+    </r>
+  </si>
+  <si>
+    <t>clownpiece_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hecatia_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eternity_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nemuno_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>坂田合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>欢</t>
+    </r>
+  </si>
+  <si>
+    <t>aun_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高丽野阿吽</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塔妮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瓦</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>narumi_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矢田寺成美</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>satono_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尔子田里乃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/丁礼田舞</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>okina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>okina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ex曲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>六面曲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>seiran_1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5359,6 +5562,28 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5439,7 +5664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5455,13 +5680,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5470,13 +5702,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5492,7 +5731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5567,6 +5806,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5602,6 +5858,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5777,12 +6050,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5797,133 +6070,133 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
         <v>304</v>
       </c>
-      <c r="D1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>305</v>
       </c>
-      <c r="F1" t="s">
-        <v>306</v>
-      </c>
       <c r="G1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>666</v>
+        <v>555</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>660</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>554</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>557</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>556</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>558</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>667</v>
+        <v>529</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>661</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>77</v>
@@ -5932,17 +6205,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>530</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>83</v>
@@ -5951,17 +6224,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>531</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -5970,41 +6243,41 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>532</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>533</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>204</v>
@@ -6025,45 +6298,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>210</v>
@@ -6078,37 +6351,37 @@
         <v>214</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>219</v>
@@ -6118,16 +6391,16 @@
         <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>220</v>
@@ -6137,130 +6410,130 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -6278,7 +6551,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -6288,7 +6561,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -6297,13 +6570,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>705</v>
+        <v>496</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>699</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -6318,11 +6591,11 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B32" s="12"/>
+        <v>495</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -6335,13 +6608,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>706</v>
+        <v>536</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>700</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
@@ -6356,11 +6629,11 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B34" s="12"/>
+        <v>535</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -6375,10 +6648,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -6396,13 +6669,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B36" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
@@ -6417,28 +6690,28 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B37" s="12"/>
+        <v>755</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B38" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6457,9 +6730,9 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B39" s="12"/>
+        <v>569</v>
+      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -6476,13 +6749,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>708</v>
+        <v>562</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>702</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>44</v>
@@ -6497,11 +6770,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B41" s="12"/>
+        <v>561</v>
+      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>42</v>
@@ -6516,10 +6789,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>709</v>
+        <v>503</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>703</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>36</v>
@@ -6531,15 +6804,15 @@
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B43" s="12"/>
+        <v>502</v>
+      </c>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
@@ -6556,7 +6829,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>48</v>
@@ -6577,7 +6850,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>49</v>
@@ -6598,13 +6871,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>711</v>
+        <v>481</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>705</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>55</v>
@@ -6619,9 +6892,9 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>483</v>
+      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="1" t="s">
         <v>221</v>
       </c>
@@ -6630,15 +6903,15 @@
         <v>86</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B49" s="9"/>
+        <v>756</v>
+      </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="1" t="s">
         <v>55</v>
       </c>
@@ -6646,54 +6919,54 @@
         <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>757</v>
+      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B51" s="8"/>
+        <v>758</v>
+      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>57</v>
@@ -6714,10 +6987,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
@@ -6735,9 +7008,9 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B54" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6754,9 +7027,9 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B55" s="8"/>
+        <v>599</v>
+      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="1" t="s">
         <v>64</v>
       </c>
@@ -6773,13 +7046,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B56" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>70</v>
@@ -6794,11 +7067,11 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B57" s="9"/>
+        <v>612</v>
+      </c>
+      <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>72</v>
@@ -6807,17 +7080,17 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>610</v>
+      </c>
+      <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>237</v>
@@ -6832,25 +7105,25 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>759</v>
+      </c>
+      <c r="B59" s="12"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -6860,58 +7133,58 @@
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>396</v>
+        <v>607</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B62" s="8"/>
+        <v>606</v>
+      </c>
+      <c r="B62" s="12"/>
       <c r="C62" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>74</v>
@@ -6924,7 +7197,7 @@
         <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -6932,17 +7205,17 @@
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="6" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -6950,16 +7223,16 @@
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>218</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -6967,27 +7240,27 @@
       <c r="B67" s="4"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>78</v>
@@ -7004,7 +7277,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -7013,10 +7286,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>767</v>
+        <v>517</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>761</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>81</v>
@@ -7034,9 +7307,9 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B71" s="8"/>
+        <v>518</v>
+      </c>
+      <c r="B71" s="12"/>
       <c r="C71" s="1" t="s">
         <v>84</v>
       </c>
@@ -7051,7 +7324,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>87</v>
@@ -7072,13 +7345,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
@@ -7091,13 +7364,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
@@ -7110,32 +7383,32 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B75" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B76" s="8"/>
+        <v>500</v>
+      </c>
+      <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>92</v>
@@ -7150,13 +7423,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>717</v>
+        <v>511</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>711</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>103</v>
@@ -7171,11 +7444,11 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B78" s="8"/>
+        <v>512</v>
+      </c>
+      <c r="B78" s="12"/>
       <c r="C78" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
@@ -7188,10 +7461,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>101</v>
@@ -7207,13 +7480,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B81" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>108</v>
@@ -7228,30 +7501,30 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B82" s="8"/>
+        <v>584</v>
+      </c>
+      <c r="B82" s="12"/>
       <c r="C82" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>719</v>
+        <v>579</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>713</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>109</v>
@@ -7264,34 +7537,34 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B84" s="8"/>
+        <v>578</v>
+      </c>
+      <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B85" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>113</v>
@@ -7300,11 +7573,11 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B86" s="9"/>
+        <v>523</v>
+      </c>
+      <c r="B86" s="11"/>
       <c r="C86" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>111</v>
@@ -7319,25 +7592,25 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
-      <c r="B87" s="8"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>721</v>
+        <v>604</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>715</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>115</v>
@@ -7355,9 +7628,9 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B89" s="8"/>
+        <v>605</v>
+      </c>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>215</v>
       </c>
@@ -7374,7 +7647,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>124</v>
@@ -7393,7 +7666,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>128</v>
@@ -7414,7 +7687,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>133</v>
@@ -7435,28 +7708,28 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>263</v>
@@ -7466,35 +7739,35 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>138</v>
@@ -7515,7 +7788,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>142</v>
@@ -7536,16 +7809,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>726</v>
+        <v>621</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>720</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>122</v>
@@ -7557,14 +7830,14 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B100" s="8"/>
+        <v>622</v>
+      </c>
+      <c r="B100" s="12"/>
       <c r="C100" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>0</v>
@@ -7576,7 +7849,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>151</v>
@@ -7597,7 +7870,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>152</v>
@@ -7618,68 +7891,68 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B103" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B104" s="9"/>
+        <v>488</v>
+      </c>
+      <c r="B104" s="11"/>
       <c r="C104" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B105" s="8"/>
+        <v>489</v>
+      </c>
+      <c r="B105" s="12"/>
       <c r="C105" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>728</v>
+        <v>572</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>722</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>170</v>
@@ -7694,11 +7967,11 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B107" s="8"/>
+        <v>571</v>
+      </c>
+      <c r="B107" s="12"/>
       <c r="C107" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>169</v>
@@ -7713,13 +7986,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B108" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>166</v>
@@ -7734,11 +8007,11 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B109" s="8"/>
+        <v>515</v>
+      </c>
+      <c r="B109" s="12"/>
       <c r="C109" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>158</v>
@@ -7753,10 +8026,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>729</v>
+        <v>588</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>723</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>163</v>
@@ -7774,9 +8047,9 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B111" s="8"/>
+        <v>587</v>
+      </c>
+      <c r="B111" s="12"/>
       <c r="C111" s="1" t="s">
         <v>161</v>
       </c>
@@ -7793,7 +8066,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>171</v>
@@ -7814,7 +8087,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>176</v>
@@ -7833,10 +8106,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>179</v>
@@ -7854,10 +8127,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>731</v>
+        <v>601</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>725</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>183</v>
@@ -7875,30 +8148,30 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B117" s="12"/>
+        <v>760</v>
+      </c>
+      <c r="B117" s="9"/>
       <c r="C117" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>732</v>
+        <v>484</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>726</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>187</v>
@@ -7913,11 +8186,11 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B119" s="8"/>
+        <v>485</v>
+      </c>
+      <c r="B119" s="12"/>
       <c r="C119" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>190</v>
@@ -7932,7 +8205,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>193</v>
@@ -7953,10 +8226,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>733</v>
+        <v>593</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>195</v>
@@ -7974,9 +8247,9 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B122" s="8"/>
+        <v>594</v>
+      </c>
+      <c r="B122" s="12"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
@@ -7989,9 +8262,9 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B123" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -8008,9 +8281,9 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B124" s="8"/>
+        <v>603</v>
+      </c>
+      <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
         <v>197</v>
       </c>
@@ -8027,10 +8300,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>222</v>
@@ -8048,10 +8321,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>225</v>
@@ -8067,10 +8340,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>228</v>
@@ -8086,10 +8359,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>230</v>
@@ -8107,7 +8380,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>232</v>
@@ -8127,27 +8400,27 @@
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="13" t="s">
-        <v>806</v>
+      <c r="C131" s="8" t="s">
+        <v>800</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>738</v>
+        <v>491</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>732</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>234</v>
@@ -8162,33 +8435,33 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B133" s="8"/>
+        <v>492</v>
+      </c>
+      <c r="B133" s="12"/>
       <c r="C133" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>97</v>
@@ -8200,7 +8473,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>235</v>
@@ -8219,10 +8492,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>241</v>
@@ -8240,10 +8513,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>363</v>
+        <v>574</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>244</v>
@@ -8261,9 +8534,9 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B140" s="8"/>
+        <v>575</v>
+      </c>
+      <c r="B140" s="12"/>
       <c r="C140" s="1" t="s">
         <v>244</v>
       </c>
@@ -8271,7 +8544,7 @@
         <v>244</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>246</v>
@@ -8291,7 +8564,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -8300,10 +8573,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>250</v>
@@ -8319,13 +8592,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B144" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>253</v>
@@ -8340,27 +8613,27 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B145" s="8"/>
+        <v>762</v>
+      </c>
+      <c r="B145" s="12"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>743</v>
+        <v>537</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>737</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>259</v>
@@ -8378,11 +8651,11 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B147" s="9"/>
+        <v>538</v>
+      </c>
+      <c r="B147" s="11"/>
       <c r="C147" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -8395,39 +8668,39 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B148" s="9"/>
+        <v>767</v>
+      </c>
+      <c r="B148" s="11"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B149" s="8"/>
+        <v>768</v>
+      </c>
+      <c r="B149" s="12"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>260</v>
@@ -8448,10 +8721,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>266</v>
@@ -8467,7 +8740,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>268</v>
@@ -8488,7 +8761,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>276</v>
@@ -8509,10 +8782,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>775</v>
+        <v>490</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>769</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>277</v>
@@ -8530,9 +8803,9 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B156" s="11"/>
+        <v>770</v>
+      </c>
+      <c r="B156" s="14"/>
       <c r="C156" s="1" t="s">
         <v>290</v>
       </c>
@@ -8549,7 +8822,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>280</v>
@@ -8570,10 +8843,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>283</v>
@@ -8591,7 +8864,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>285</v>
@@ -8601,7 +8874,7 @@
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>267</v>
@@ -8610,840 +8883,945 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>582</v>
+        <v>820</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>620</v>
+        <v>498</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B164" s="8"/>
+        <v>772</v>
+      </c>
+      <c r="B164" s="12"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>619</v>
+        <v>568</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>613</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="B166" s="9"/>
+        <v>774</v>
+      </c>
+      <c r="B166" s="11"/>
       <c r="C166" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B167" s="9"/>
+        <v>775</v>
+      </c>
+      <c r="B167" s="11"/>
       <c r="C167" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B168" s="8"/>
+        <v>776</v>
+      </c>
+      <c r="B168" s="12"/>
       <c r="C168" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>500</v>
+        <v>804</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>751</v>
+        <v>509</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B171" s="8"/>
+        <v>773</v>
+      </c>
+      <c r="B171" s="12"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>511</v>
+        <v>805</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>295</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>754</v>
-      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>598</v>
+        <v>812</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>757</v>
-      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>367</v>
+        <v>817</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>819</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1" t="s">
-        <v>758</v>
-      </c>
+      <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>326</v>
-      </c>
+      <c r="A189" s="15"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>759</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="A190" s="15"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>753</v>
+      </c>
+      <c r="C193" t="s">
+        <v>303</v>
+      </c>
+      <c r="D193" t="s">
+        <v>313</v>
+      </c>
+      <c r="E193" t="s">
         <v>304</v>
       </c>
-      <c r="D190" t="s">
-        <v>314</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F193" t="s">
         <v>305</v>
       </c>
-      <c r="F190" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G194" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="1" t="s">
-        <v>376</v>
+        <v>786</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D199" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E199" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>684</v>
+        <v>379</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="1" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>416</v>
+        <v>678</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D203" s="1"/>
+        <v>397</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="E203" s="1" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="1" t="s">
-        <v>793</v>
+        <v>410</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="1" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="1" t="s">
-        <v>428</v>
+        <v>787</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="1" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="1" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" s="1" t="s">
+      <c r="D218" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G216" s="1"/>
+      <c r="G219" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G216"/>
-  <mergeCells count="36">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B70:B71"/>
+  <autoFilter ref="A1:G219" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="37">
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B163:B164"/>
     <mergeCell ref="B123:B124"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="B83:B84"/>
@@ -9457,26 +9835,33 @@
     <mergeCell ref="B118:B119"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E65" r:id="rId1" display="https://www.xiami.com/artist/113099?spm=a2oj1.12028335.0.0.266066d4oyS5T3"/>
-    <hyperlink ref="F65" r:id="rId2" display="https://www.xiami.com/album/1187942536"/>
-    <hyperlink ref="F66" r:id="rId3" display="https://www.xiami.com/album/486998"/>
-    <hyperlink ref="D66" r:id="rId4" display="https://www.xiami.com/song/1770729601"/>
-    <hyperlink ref="E67" r:id="rId5" display="https://www.xiami.com/artist/819993944?spm=a2oj1.12028335.0.0.266073a0oP5PGE"/>
-    <hyperlink ref="F67" r:id="rId6" display="https://www.xiami.com/album/2100378480?spm=a2oj1.12028335.0.0.266073a0oP5PGE"/>
-    <hyperlink ref="D67" r:id="rId7" display="https://www.xiami.com/song/1776357841"/>
-    <hyperlink ref="E87" r:id="rId8" display="https://www.xiami.com/artist/113539?spm=a2oj1.12028335.0.0.25371854i3Y3Oh"/>
-    <hyperlink ref="F87" r:id="rId9" display="https://www.xiami.com/album/499515"/>
+    <hyperlink ref="E65" r:id="rId1" display="https://www.xiami.com/artist/113099?spm=a2oj1.12028335.0.0.266066d4oyS5T3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F65" r:id="rId2" display="https://www.xiami.com/album/1187942536" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F66" r:id="rId3" display="https://www.xiami.com/album/486998" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D66" r:id="rId4" display="https://www.xiami.com/song/1770729601" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E67" r:id="rId5" display="https://www.xiami.com/artist/819993944?spm=a2oj1.12028335.0.0.266073a0oP5PGE" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F67" r:id="rId6" display="https://www.xiami.com/album/2100378480?spm=a2oj1.12028335.0.0.266073a0oP5PGE" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D67" r:id="rId7" display="https://www.xiami.com/song/1776357841" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E87" r:id="rId8" display="https://www.xiami.com/artist/113539?spm=a2oj1.12028335.0.0.25371854i3Y3Oh" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F87" r:id="rId9" display="https://www.xiami.com/album/499515" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -9484,7 +9869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9497,7 +9882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
